--- a/RN, RF E RNF.xlsx
+++ b/RN, RF E RNF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caio_va_silva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099BD5A9-1226-48B7-8F16-548496E163F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CF93E3-6DA6-48EB-9960-CDBDFFFD65EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C57725DA-0EA8-4C24-B6CA-911F936AED6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C57725DA-0EA8-4C24-B6CA-911F936AED6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Regras de negócio" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>R</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="149">
   <si>
     <t xml:space="preserve">Regra de negócio </t>
   </si>
@@ -77,53 +74,6 @@
   </si>
   <si>
     <t>Todo usuário deve estar autenticado para acessar o sistema.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Existem dois tipos de usuários: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Funcionário</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Administrador</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>O tipo de usuário define as permissões de acesso e funcionalidades disponíveis.</t>
@@ -212,22 +162,338 @@
   </si>
   <si>
     <t>RN020</t>
+  </si>
+  <si>
+    <t>RNF001</t>
+  </si>
+  <si>
+    <t>RNF002</t>
+  </si>
+  <si>
+    <t>RNF003</t>
+  </si>
+  <si>
+    <t>RNF004</t>
+  </si>
+  <si>
+    <t>RNF005</t>
+  </si>
+  <si>
+    <t>RNF006</t>
+  </si>
+  <si>
+    <t>RNF007</t>
+  </si>
+  <si>
+    <t>RNF008</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Plataforma</t>
+  </si>
+  <si>
+    <t>Segurança</t>
+  </si>
+  <si>
+    <t>Portabilidade</t>
+  </si>
+  <si>
+    <t>Desempenho</t>
+  </si>
+  <si>
+    <t>Integridade</t>
+  </si>
+  <si>
+    <t>Disponibilidade</t>
+  </si>
+  <si>
+    <t>Usabilidade</t>
+  </si>
+  <si>
+    <t>Evolutividade</t>
+  </si>
+  <si>
+    <t>O sistema deve ser um aplicativo desktop desenvolvido em Python com Tkinter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A autenticação será local, com senhas armazenadas com segurança</t>
+  </si>
+  <si>
+    <t>O sistema deve funcionar no Windows. Compatibilidade futura com Linux é desejável.</t>
+  </si>
+  <si>
+    <t>Tempo de resposta para operações comuns (login, movimentação, cadastro) deve ser inferior a 2 segundos.</t>
+  </si>
+  <si>
+    <t>O banco de dados local (ex: SQLite) deve garantir transações seguras e consistência de estoque.</t>
+  </si>
+  <si>
+    <t>O sistema deve funcionar offline, sem necessidade de conexão com a internet.</t>
+  </si>
+  <si>
+    <t>O sistema deve ser leve e funcionar bem em máquinas com 2GB de RAM e processadores dual-core.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	O sistema deve estar preparado para adição futura de filtros por data, exportação de relatórios e logs de ações.</t>
+  </si>
+  <si>
+    <t>RF001</t>
+  </si>
+  <si>
+    <t>RF002</t>
+  </si>
+  <si>
+    <t>RF003</t>
+  </si>
+  <si>
+    <t>RF004</t>
+  </si>
+  <si>
+    <t>RF005</t>
+  </si>
+  <si>
+    <t>RF006</t>
+  </si>
+  <si>
+    <t>RF007</t>
+  </si>
+  <si>
+    <t>RF008</t>
+  </si>
+  <si>
+    <t>RF009</t>
+  </si>
+  <si>
+    <t>RF010</t>
+  </si>
+  <si>
+    <t>RF011</t>
+  </si>
+  <si>
+    <t>RF012</t>
+  </si>
+  <si>
+    <t>RF013</t>
+  </si>
+  <si>
+    <t>RF014</t>
+  </si>
+  <si>
+    <t>RF015</t>
+  </si>
+  <si>
+    <t>RF016</t>
+  </si>
+  <si>
+    <t>RF017</t>
+  </si>
+  <si>
+    <t>RF018</t>
+  </si>
+  <si>
+    <t>RF019</t>
+  </si>
+  <si>
+    <t>RF020</t>
+  </si>
+  <si>
+    <t>RF021</t>
+  </si>
+  <si>
+    <t>RF022</t>
+  </si>
+  <si>
+    <t>RF023</t>
+  </si>
+  <si>
+    <t>RF024</t>
+  </si>
+  <si>
+    <t>RF025</t>
+  </si>
+  <si>
+    <t>RF026</t>
+  </si>
+  <si>
+    <t>Autenticação</t>
+  </si>
+  <si>
+    <t>Controle de acesso</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir login com usuário e senha.</t>
+  </si>
+  <si>
+    <t>O sistema deve identificar o tipo de usuário (Funcionário ou Administrador).</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir logout manual do usuário.</t>
+  </si>
+  <si>
+    <t>Sessão</t>
+  </si>
+  <si>
+    <t>O administrador deve poder cadastrar novos usuários</t>
+  </si>
+  <si>
+    <t>Cadastro</t>
+  </si>
+  <si>
+    <t>Edição</t>
+  </si>
+  <si>
+    <t>O administrador deve poder editar usuários existentes.</t>
+  </si>
+  <si>
+    <t>O administrador deve poder excluir usuários do sistema.</t>
+  </si>
+  <si>
+    <t>Exclusão</t>
+  </si>
+  <si>
+    <t>Validação</t>
+  </si>
+  <si>
+    <t>O sistema deve validar se o login é único antes do cadastro.</t>
+  </si>
+  <si>
+    <t>Funcionários devem poder cadastrar novos produtos.</t>
+  </si>
+  <si>
+    <t>Funcionários devem poder editar produtos existentes.</t>
+  </si>
+  <si>
+    <t>Funcionários devem visualizar todos os produtos e seus dados.</t>
+  </si>
+  <si>
+    <t>Visualização</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>O produto deve conter categoria, marca, modelo, fornecedor e quantidade.</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir busca por nome, categoria ou marca.</t>
+  </si>
+  <si>
+    <t>Busca</t>
+  </si>
+  <si>
+    <t>Funcionários devem registrar entrada de produtos (fornecedor → estoque).</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Deve existir uma tela para realizar o registro de entradas de produtos.</t>
+  </si>
+  <si>
+    <t>Saída</t>
+  </si>
+  <si>
+    <t>Funcionários devem registrar saída de produtos (estoque → cliente).</t>
+  </si>
+  <si>
+    <t>Deve existir uma tela para realizar o registro de saída de produtos.</t>
+  </si>
+  <si>
+    <t>Não permitir saída de produtos sem estoque suficiente.</t>
+  </si>
+  <si>
+    <t>As movimentações de saída devem ficar registradas nas vendas.</t>
+  </si>
+  <si>
+    <t>Histórico</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Administrador deve visualizar: vendas por categoria, total de vendas, renda total, produtos mais vendidos, compras por cliente.</t>
+  </si>
+  <si>
+    <t>Gráficos</t>
+  </si>
+  <si>
+    <t>O dashboard deve exibir gráficos simples com informações.</t>
+  </si>
+  <si>
+    <t>Estoque Baixo</t>
+  </si>
+  <si>
+    <t>O sistema deve emitir alertas para produtos com estoque abaixo do mínimo.</t>
+  </si>
+  <si>
+    <t>Confirmação</t>
+  </si>
+  <si>
+    <t>Toda exclusão, alteração ou cadastro deve deve ter confirmação do usuário antes de ser executada.</t>
+  </si>
+  <si>
+    <t>Responsividade</t>
+  </si>
+  <si>
+    <t>Telas devem ajustar tamanho dos campos conforme a janela.</t>
+  </si>
+  <si>
+    <t>Filtro</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir filtrar histórico por data, usuário ou produto.</t>
+  </si>
+  <si>
+    <t>Filtros</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir filtrar o estoque por categoria, marca ou fornecedor.</t>
+  </si>
+  <si>
+    <t>Ordenações</t>
+  </si>
+  <si>
+    <t>Permitir ordenação alfabética ou por quantidade em estoque.</t>
+  </si>
+  <si>
+    <t>Existem dois tipos de usuários: Funcionário e Administrador.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -240,16 +506,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -257,31 +549,966 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -300,11 +1527,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28EACC13-3FD0-4962-A132-752AA37638C2}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28EACC13-3FD0-4962-A132-752AA37638C2}" name="Tabela1" displayName="Tabela1" ref="A1:B21" totalsRowShown="0" headerRowDxfId="51" dataDxfId="55" headerRowBorderDxfId="53" tableBorderDxfId="54" totalsRowBorderDxfId="52">
   <autoFilter ref="A1:B21" xr:uid="{28EACC13-3FD0-4962-A132-752AA37638C2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7C3F8B30-430F-4052-A21D-9AE9416731D7}" name="Regra de negócio " dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4848CDBB-FB33-4315-9BBE-3A2646E7E2F6}" name="Descrição " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7C3F8B30-430F-4052-A21D-9AE9416731D7}" name="Regra de negócio " dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4848CDBB-FB33-4315-9BBE-3A2646E7E2F6}" name="Descrição " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05838EA0-FE89-4962-9521-FCDD19D9C210}" name="Tabela2" displayName="Tabela2" ref="A1:E9" insertRowShift="1" totalsRowShown="0" headerRowDxfId="2" dataDxfId="50" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:E9" xr:uid="{05838EA0-FE89-4962-9521-FCDD19D9C210}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B2E11D13-1D01-4766-8E2B-4899A8A0667C}" name="Código" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{DC94BC7F-DDDE-43B8-8EFF-5893AF4F1B0F}" name="Classificação" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1E60994D-27FD-407C-BA90-CD0BE20425F2}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6CA5A832-7FD2-479B-93D9-DB2B70F81700}" name="Descrição" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F0F9E323-942B-4784-900B-C3C25E48073A}" name="Prioridade" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FD0776B0-C00E-482C-91B7-B9A96B10DAD0}" name="Tabela5" displayName="Tabela5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:E27" xr:uid="{FD0776B0-C00E-482C-91B7-B9A96B10DAD0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B508EAE1-E931-44CD-A734-F55A7182C9B1}" name="Código" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4A8A3E59-7DFC-4DC6-988E-3E7FCDF29A8D}" name="Classificação" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{33D1B94A-04D7-4C56-BE49-869A5AC8E01E}" name="Tipo" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A284AD45-2A5D-4210-BD16-FFB1F41468E5}" name="Descrição" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{7D1C4412-9A6C-4743-9F5E-22CA4B790496}" name="Prioridade" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -629,188 +1884,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E77EBB-EE5F-4A4D-8817-0F5AF4943D3C}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="120.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="8" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="10" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.35" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" ht="25.35" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -820,32 +2075,720 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98FABCF-7C26-491C-9921-0436C7CDC23F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:C1 B2:B9">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+      <formula>"Baixa"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+      <formula>"Média"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+      <formula>"Alta"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944C822D-E021-441A-B115-D4F72ACC5C21}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B27">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+      <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E27">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+      <formula>"Baixa"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+      <formula>"Média"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+      <formula>"Alta"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>